--- a/data/接口测试用例.xlsx
+++ b/data/接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InterfaceTestPlatform\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B191A46E-EC73-4DA7-A7D5-B9FF75D02E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F41BE-6FE8-416D-8DA2-CEC64D3DD6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>测试模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,6 +86,10 @@
   </si>
   <si>
     <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fasle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,22 +506,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -829,5 +829,6 @@
   <autoFilter ref="B1:B303" xr:uid="{F2D25ABD-F66E-4F43-8433-1FB228B5AFCE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/接口测试用例.xlsx
+++ b/data/接口测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InterfaceTestPlatform\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F41BE-6FE8-416D-8DA2-CEC64D3DD6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F347258F-FFB1-4C98-BE62-A2F2809739E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>测试模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,7 +89,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fasle</t>
+    <t>turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/接口测试用例.xlsx
+++ b/data/接口测试用例.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InterfaceTestPlatform\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F347258F-FFB1-4C98-BE62-A2F2809739E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33758656-99E0-47FE-89F8-BEC178FB883F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28935" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$303</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>测试模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>请求地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/login/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,18 +66,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account":"cp","pwd":"6c14da109e294d1e8155be8aa4b1ce8e"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
- "mobile":"15766126202"
- "passWord":"c4ca4238a0b923820dcc509a6f75849b"
+ "code":400,
+ "msg":"密码错误"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>turn</t>
+  </si>
+  <si>
+    <t>{
+ "code":401,
+ "msg":"密码错误"
+}</t>
+  </si>
+  <si>
+    <t>{"account":"cp1","pwd":"6c14da109e294d1e8155be8aa4b1ce9e"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误账号密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,86 +479,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:J303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="2" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5">
+        <v>200</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>200</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -826,7 +884,7 @@
     <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="B1:B303" xr:uid="{F2D25ABD-F66E-4F43-8433-1FB228B5AFCE}"/>
+  <autoFilter ref="C1:C303" xr:uid="{F2D25ABD-F66E-4F43-8433-1FB228B5AFCE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
